--- a/F1_Repeatability_Anxiety/Anxiety_F1_Trial_List.xlsx
+++ b/F1_Repeatability_Anxiety/Anxiety_F1_Trial_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Dropbox\Zebrafish Experiment\BIG EXPERIMENT\F1\Anxiety\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Dropbox\Zebrafish Experiment\BIG EXPERIMENT\F1_Methods_Chapter_Analysis\F1_Repeatability_Anxiety\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8E746-82D5-482D-958A-A7027D28ADE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB36DF-341E-48F2-9C22-BAFC38D5893B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="Anxiety 2" sheetId="5" r:id="rId2"/>
     <sheet name="Anxiety 3(1)" sheetId="6" r:id="rId3"/>
     <sheet name="Anxiety 4(2)" sheetId="7" r:id="rId4"/>
-    <sheet name="Test" sheetId="11" r:id="rId5"/>
-    <sheet name="Anxiety 5(3)" sheetId="8" r:id="rId6"/>
-    <sheet name="Anxiety 6(4)" sheetId="9" r:id="rId7"/>
-    <sheet name="A6 Reorder" sheetId="12" r:id="rId8"/>
+    <sheet name="Anxiety 5(3)" sheetId="8" r:id="rId5"/>
+    <sheet name="Anxiety 6(4)" sheetId="9" r:id="rId6"/>
+    <sheet name="A6 Reorder" sheetId="12" r:id="rId7"/>
+    <sheet name="Test" sheetId="11" r:id="rId8"/>
     <sheet name="Notes" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -24981,4089 +24981,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604B8FC-51F2-4E78-83A6-AFC78173207E}">
-  <dimension ref="A1:K161"/>
-  <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
-        <v>43894</v>
-      </c>
-      <c r="E2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>9</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>11</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>11</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>13</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>13</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>13</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>14</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>14</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>14</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>14</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>15</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J58" s="34"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>15</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>15</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>15</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>16</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J62" s="34"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63">
-        <v>16</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64">
-        <v>16</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65">
-        <v>16</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J65" s="34"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>17</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>17</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>17</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69">
-        <v>17</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>18</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>18</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>18</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J72" s="34"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>18</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>19</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75">
-        <v>19</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>19</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>19</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>20</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>20</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>20</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J80" s="34"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>20</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J81" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>8</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>6</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>7</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="J90" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>7</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G92" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>2</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93">
-        <v>8</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G93" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>2</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94">
-        <v>5</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J94" s="34"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>2</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>7</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>2</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97">
-        <v>8</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
-      </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2</v>
-      </c>
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99">
-        <v>6</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>2</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>7</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>2</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>8</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>2</v>
-      </c>
-      <c r="B102">
-        <v>6</v>
-      </c>
-      <c r="C102">
-        <v>5</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103">
-        <v>6</v>
-      </c>
-      <c r="C103">
-        <v>6</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104">
-        <v>6</v>
-      </c>
-      <c r="C104">
-        <v>7</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>2</v>
-      </c>
-      <c r="B105">
-        <v>6</v>
-      </c>
-      <c r="C105">
-        <v>8</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106">
-        <v>7</v>
-      </c>
-      <c r="C106">
-        <v>5</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G106" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>2</v>
-      </c>
-      <c r="B107">
-        <v>7</v>
-      </c>
-      <c r="C107">
-        <v>6</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108">
-        <v>7</v>
-      </c>
-      <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>2</v>
-      </c>
-      <c r="B109">
-        <v>7</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>2</v>
-      </c>
-      <c r="B110">
-        <v>8</v>
-      </c>
-      <c r="C110">
-        <v>5</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J110" s="33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>2</v>
-      </c>
-      <c r="B111">
-        <v>8</v>
-      </c>
-      <c r="C111">
-        <v>6</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>2</v>
-      </c>
-      <c r="B112">
-        <v>8</v>
-      </c>
-      <c r="C112">
-        <v>7</v>
-      </c>
-      <c r="F112" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>2</v>
-      </c>
-      <c r="B113">
-        <v>8</v>
-      </c>
-      <c r="C113">
-        <v>8</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J113" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>2</v>
-      </c>
-      <c r="B114">
-        <v>9</v>
-      </c>
-      <c r="C114">
-        <v>5</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H114" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>2</v>
-      </c>
-      <c r="B115">
-        <v>9</v>
-      </c>
-      <c r="C115">
-        <v>6</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>2</v>
-      </c>
-      <c r="B116">
-        <v>9</v>
-      </c>
-      <c r="C116">
-        <v>7</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J116" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>2</v>
-      </c>
-      <c r="B117">
-        <v>9</v>
-      </c>
-      <c r="C117">
-        <v>8</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>2</v>
-      </c>
-      <c r="B118">
-        <v>10</v>
-      </c>
-      <c r="C118">
-        <v>5</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>2</v>
-      </c>
-      <c r="B119">
-        <v>10</v>
-      </c>
-      <c r="C119">
-        <v>6</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>2</v>
-      </c>
-      <c r="B120">
-        <v>10</v>
-      </c>
-      <c r="C120">
-        <v>7</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J120" s="33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>2</v>
-      </c>
-      <c r="B121">
-        <v>10</v>
-      </c>
-      <c r="C121">
-        <v>8</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>2</v>
-      </c>
-      <c r="B122">
-        <v>11</v>
-      </c>
-      <c r="C122">
-        <v>5</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123">
-        <v>11</v>
-      </c>
-      <c r="C123">
-        <v>6</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>2</v>
-      </c>
-      <c r="B124">
-        <v>11</v>
-      </c>
-      <c r="C124">
-        <v>7</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125">
-        <v>11</v>
-      </c>
-      <c r="C125">
-        <v>8</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>2</v>
-      </c>
-      <c r="B126">
-        <v>12</v>
-      </c>
-      <c r="C126">
-        <v>5</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J126" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127">
-        <v>12</v>
-      </c>
-      <c r="C127">
-        <v>6</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128">
-        <v>12</v>
-      </c>
-      <c r="C128">
-        <v>7</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>2</v>
-      </c>
-      <c r="B129">
-        <v>12</v>
-      </c>
-      <c r="C129">
-        <v>8</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>2</v>
-      </c>
-      <c r="B130">
-        <v>13</v>
-      </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>2</v>
-      </c>
-      <c r="B131">
-        <v>13</v>
-      </c>
-      <c r="C131">
-        <v>6</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>2</v>
-      </c>
-      <c r="B132">
-        <v>13</v>
-      </c>
-      <c r="C132">
-        <v>7</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>2</v>
-      </c>
-      <c r="B133">
-        <v>13</v>
-      </c>
-      <c r="C133">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>2</v>
-      </c>
-      <c r="B134">
-        <v>14</v>
-      </c>
-      <c r="C134">
-        <v>5</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>2</v>
-      </c>
-      <c r="B135">
-        <v>14</v>
-      </c>
-      <c r="C135">
-        <v>6</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>2</v>
-      </c>
-      <c r="B136">
-        <v>14</v>
-      </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>2</v>
-      </c>
-      <c r="B137">
-        <v>14</v>
-      </c>
-      <c r="C137">
-        <v>8</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>2</v>
-      </c>
-      <c r="B138">
-        <v>15</v>
-      </c>
-      <c r="C138">
-        <v>5</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>2</v>
-      </c>
-      <c r="B139">
-        <v>15</v>
-      </c>
-      <c r="C139">
-        <v>6</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>2</v>
-      </c>
-      <c r="B140">
-        <v>15</v>
-      </c>
-      <c r="C140">
-        <v>7</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>2</v>
-      </c>
-      <c r="B141">
-        <v>15</v>
-      </c>
-      <c r="C141">
-        <v>8</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>2</v>
-      </c>
-      <c r="B142">
-        <v>16</v>
-      </c>
-      <c r="C142">
-        <v>5</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>2</v>
-      </c>
-      <c r="B143">
-        <v>16</v>
-      </c>
-      <c r="C143">
-        <v>6</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>2</v>
-      </c>
-      <c r="B144">
-        <v>16</v>
-      </c>
-      <c r="C144">
-        <v>7</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>2</v>
-      </c>
-      <c r="B145">
-        <v>16</v>
-      </c>
-      <c r="C145">
-        <v>8</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>2</v>
-      </c>
-      <c r="B146">
-        <v>17</v>
-      </c>
-      <c r="C146">
-        <v>5</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>2</v>
-      </c>
-      <c r="B147">
-        <v>17</v>
-      </c>
-      <c r="C147">
-        <v>6</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>2</v>
-      </c>
-      <c r="B148">
-        <v>17</v>
-      </c>
-      <c r="C148">
-        <v>7</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>2</v>
-      </c>
-      <c r="B149">
-        <v>17</v>
-      </c>
-      <c r="C149">
-        <v>8</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>2</v>
-      </c>
-      <c r="B150">
-        <v>18</v>
-      </c>
-      <c r="C150">
-        <v>5</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>2</v>
-      </c>
-      <c r="B151">
-        <v>18</v>
-      </c>
-      <c r="C151">
-        <v>6</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>2</v>
-      </c>
-      <c r="B152">
-        <v>18</v>
-      </c>
-      <c r="C152">
-        <v>7</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>2</v>
-      </c>
-      <c r="B153">
-        <v>18</v>
-      </c>
-      <c r="C153">
-        <v>8</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>2</v>
-      </c>
-      <c r="B154">
-        <v>19</v>
-      </c>
-      <c r="C154">
-        <v>5</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>2</v>
-      </c>
-      <c r="B155">
-        <v>19</v>
-      </c>
-      <c r="C155">
-        <v>6</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>2</v>
-      </c>
-      <c r="B156">
-        <v>19</v>
-      </c>
-      <c r="C156">
-        <v>7</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>2</v>
-      </c>
-      <c r="B157">
-        <v>19</v>
-      </c>
-      <c r="C157">
-        <v>8</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J157" s="34"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>2</v>
-      </c>
-      <c r="B158">
-        <v>20</v>
-      </c>
-      <c r="C158">
-        <v>5</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>2</v>
-      </c>
-      <c r="B159">
-        <v>20</v>
-      </c>
-      <c r="C159">
-        <v>6</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>2</v>
-      </c>
-      <c r="B160">
-        <v>20</v>
-      </c>
-      <c r="C160">
-        <v>7</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G160" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>2</v>
-      </c>
-      <c r="B161">
-        <v>20</v>
-      </c>
-      <c r="C161">
-        <v>8</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K161">
-    <sortCondition ref="A2:A161"/>
-    <sortCondition ref="B2:B161"/>
-  </sortState>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="duplicateValues" dxfId="329" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="328" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="duplicateValues" dxfId="327" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="326" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="duplicateValues" dxfId="325" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="324" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="duplicateValues" dxfId="323" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="duplicateValues" dxfId="322" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="duplicateValues" dxfId="321" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="duplicateValues" dxfId="320" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="319" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="duplicateValues" dxfId="318" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="317" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="duplicateValues" dxfId="316" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="duplicateValues" dxfId="315" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="314" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="duplicateValues" dxfId="313" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="duplicateValues" dxfId="312" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="311" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I24 I27:I41">
-    <cfRule type="duplicateValues" dxfId="310" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61 I44 I56:I59 I46:I54 J58">
-    <cfRule type="duplicateValues" dxfId="309" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60 I45">
-    <cfRule type="duplicateValues" dxfId="308" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="duplicateValues" dxfId="307" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="duplicateValues" dxfId="306" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="duplicateValues" dxfId="305" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I81 I62:I67 J65 J62 J72 J80">
-    <cfRule type="duplicateValues" dxfId="304" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100">
-    <cfRule type="duplicateValues" dxfId="303" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="duplicateValues" dxfId="302" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I93">
-    <cfRule type="duplicateValues" dxfId="301" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89">
-    <cfRule type="duplicateValues" dxfId="300" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
-    <cfRule type="duplicateValues" dxfId="299" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101">
-    <cfRule type="duplicateValues" dxfId="298" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
-    <cfRule type="duplicateValues" dxfId="297" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91:I92">
-    <cfRule type="duplicateValues" dxfId="296" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
-    <cfRule type="duplicateValues" dxfId="295" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="duplicateValues" dxfId="294" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97">
-    <cfRule type="duplicateValues" dxfId="293" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88">
-    <cfRule type="duplicateValues" dxfId="292" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I95">
-    <cfRule type="duplicateValues" dxfId="291" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94:J94">
-    <cfRule type="duplicateValues" dxfId="290" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99">
-    <cfRule type="duplicateValues" dxfId="289" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
-    <cfRule type="duplicateValues" dxfId="288" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86">
-    <cfRule type="duplicateValues" dxfId="287" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="duplicateValues" dxfId="286" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
-    <cfRule type="duplicateValues" dxfId="285" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105">
-    <cfRule type="duplicateValues" dxfId="284" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="duplicateValues" dxfId="283" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I116">
-    <cfRule type="duplicateValues" dxfId="282" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I120">
-    <cfRule type="duplicateValues" dxfId="281" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117">
-    <cfRule type="duplicateValues" dxfId="280" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I108">
-    <cfRule type="duplicateValues" dxfId="279" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I118">
-    <cfRule type="duplicateValues" dxfId="278" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I110">
-    <cfRule type="duplicateValues" dxfId="277" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I104">
-    <cfRule type="duplicateValues" dxfId="276" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115">
-    <cfRule type="duplicateValues" dxfId="275" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I109">
-    <cfRule type="duplicateValues" dxfId="274" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I111">
-    <cfRule type="duplicateValues" dxfId="273" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I119">
-    <cfRule type="duplicateValues" dxfId="272" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I113">
-    <cfRule type="duplicateValues" dxfId="271" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
-    <cfRule type="duplicateValues" dxfId="270" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I107">
-    <cfRule type="duplicateValues" dxfId="269" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I140">
-    <cfRule type="duplicateValues" dxfId="268" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I132">
-    <cfRule type="duplicateValues" dxfId="267" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I129">
-    <cfRule type="duplicateValues" dxfId="266" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I131">
-    <cfRule type="duplicateValues" dxfId="265" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I139">
-    <cfRule type="duplicateValues" dxfId="264" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I137">
-    <cfRule type="duplicateValues" dxfId="263" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I141">
-    <cfRule type="duplicateValues" dxfId="262" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I123">
-    <cfRule type="duplicateValues" dxfId="261" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
-    <cfRule type="duplicateValues" dxfId="260" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128">
-    <cfRule type="duplicateValues" dxfId="259" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I135">
-    <cfRule type="duplicateValues" dxfId="258" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125">
-    <cfRule type="duplicateValues" dxfId="257" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I126">
-    <cfRule type="duplicateValues" dxfId="256" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122">
-    <cfRule type="duplicateValues" dxfId="255" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
-    <cfRule type="duplicateValues" dxfId="254" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I138">
-    <cfRule type="duplicateValues" dxfId="253" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I134">
-    <cfRule type="duplicateValues" dxfId="252" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127">
-    <cfRule type="duplicateValues" dxfId="251" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I133">
-    <cfRule type="duplicateValues" dxfId="250" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I124">
-    <cfRule type="duplicateValues" dxfId="249" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I155">
-    <cfRule type="duplicateValues" dxfId="248" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I143">
-    <cfRule type="duplicateValues" dxfId="247" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I144">
-    <cfRule type="duplicateValues" dxfId="246" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I157:J157">
-    <cfRule type="duplicateValues" dxfId="245" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I150">
-    <cfRule type="duplicateValues" dxfId="244" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I153">
-    <cfRule type="duplicateValues" dxfId="243" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146">
-    <cfRule type="duplicateValues" dxfId="242" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161">
-    <cfRule type="duplicateValues" dxfId="241" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I148">
-    <cfRule type="duplicateValues" dxfId="240" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149">
-    <cfRule type="duplicateValues" dxfId="239" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I158">
-    <cfRule type="duplicateValues" dxfId="238" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I145">
-    <cfRule type="duplicateValues" dxfId="237" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I156">
-    <cfRule type="duplicateValues" dxfId="236" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I147">
-    <cfRule type="duplicateValues" dxfId="235" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I160">
-    <cfRule type="duplicateValues" dxfId="234" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I154">
-    <cfRule type="duplicateValues" dxfId="233" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I142">
-    <cfRule type="duplicateValues" dxfId="232" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I159">
-    <cfRule type="duplicateValues" dxfId="231" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I151:I152">
-    <cfRule type="duplicateValues" dxfId="230" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CE4A7D-D048-4F4C-A925-790D1708958E}">
   <dimension ref="A1:K161"/>
   <sheetViews>
@@ -33126,7 +29043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC606160-08C1-49BA-BA16-13BD062C8167}">
   <dimension ref="A1:K161"/>
   <sheetViews>
@@ -37085,11 +33002,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F11F5F-004F-40CD-991C-42C38E3B3597}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J161"/>
     </sheetView>
   </sheetViews>
@@ -41046,6 +36963,4089 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I160:I161 I142:I158">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604B8FC-51F2-4E78-83A6-AFC78173207E}">
+  <dimension ref="A1:K161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>43894</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J58" s="34"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J62" s="34"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J65" s="34"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J72" s="34"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J80" s="34"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J81" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="J90" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J94" s="34"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J110" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J113" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J116" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J120" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>6</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>11</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J126" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>7</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>17</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>18</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>18</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>18</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>19</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>19</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>19</v>
+      </c>
+      <c r="C156">
+        <v>7</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>19</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J157" s="34"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K161">
+    <sortCondition ref="A2:A161"/>
+    <sortCondition ref="B2:B161"/>
+  </sortState>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="duplicateValues" dxfId="329" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="duplicateValues" dxfId="328" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="duplicateValues" dxfId="327" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="duplicateValues" dxfId="326" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="duplicateValues" dxfId="325" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="duplicateValues" dxfId="324" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="duplicateValues" dxfId="323" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="duplicateValues" dxfId="322" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="duplicateValues" dxfId="321" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="duplicateValues" dxfId="320" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="319" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="duplicateValues" dxfId="318" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="317" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="duplicateValues" dxfId="316" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="duplicateValues" dxfId="315" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="duplicateValues" dxfId="314" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="duplicateValues" dxfId="313" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="duplicateValues" dxfId="312" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="311" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I24 I27:I41">
+    <cfRule type="duplicateValues" dxfId="310" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61 I44 I56:I59 I46:I54 J58">
+    <cfRule type="duplicateValues" dxfId="309" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60 I45">
+    <cfRule type="duplicateValues" dxfId="308" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="duplicateValues" dxfId="307" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="duplicateValues" dxfId="306" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="duplicateValues" dxfId="305" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I81 I62:I67 J65 J62 J72 J80">
+    <cfRule type="duplicateValues" dxfId="304" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100">
+    <cfRule type="duplicateValues" dxfId="303" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="duplicateValues" dxfId="302" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93">
+    <cfRule type="duplicateValues" dxfId="301" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89">
+    <cfRule type="duplicateValues" dxfId="300" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96">
+    <cfRule type="duplicateValues" dxfId="299" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101">
+    <cfRule type="duplicateValues" dxfId="298" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="duplicateValues" dxfId="297" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:I92">
+    <cfRule type="duplicateValues" dxfId="296" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87">
+    <cfRule type="duplicateValues" dxfId="295" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
+    <cfRule type="duplicateValues" dxfId="294" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97">
+    <cfRule type="duplicateValues" dxfId="293" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88">
+    <cfRule type="duplicateValues" dxfId="292" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95">
+    <cfRule type="duplicateValues" dxfId="291" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94:J94">
+    <cfRule type="duplicateValues" dxfId="290" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99">
+    <cfRule type="duplicateValues" dxfId="289" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="duplicateValues" dxfId="288" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86">
+    <cfRule type="duplicateValues" dxfId="287" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="duplicateValues" dxfId="286" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90">
+    <cfRule type="duplicateValues" dxfId="285" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105">
+    <cfRule type="duplicateValues" dxfId="284" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I102">
+    <cfRule type="duplicateValues" dxfId="283" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116">
+    <cfRule type="duplicateValues" dxfId="282" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I120">
+    <cfRule type="duplicateValues" dxfId="281" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117">
+    <cfRule type="duplicateValues" dxfId="280" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108">
+    <cfRule type="duplicateValues" dxfId="279" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
+    <cfRule type="duplicateValues" dxfId="278" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I110">
+    <cfRule type="duplicateValues" dxfId="277" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104">
+    <cfRule type="duplicateValues" dxfId="276" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115">
+    <cfRule type="duplicateValues" dxfId="275" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
+    <cfRule type="duplicateValues" dxfId="274" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111">
+    <cfRule type="duplicateValues" dxfId="273" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119">
+    <cfRule type="duplicateValues" dxfId="272" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="duplicateValues" dxfId="271" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121">
+    <cfRule type="duplicateValues" dxfId="270" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107">
+    <cfRule type="duplicateValues" dxfId="269" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I140">
+    <cfRule type="duplicateValues" dxfId="268" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I132">
+    <cfRule type="duplicateValues" dxfId="267" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="duplicateValues" dxfId="266" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131">
+    <cfRule type="duplicateValues" dxfId="265" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I139">
+    <cfRule type="duplicateValues" dxfId="264" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I137">
+    <cfRule type="duplicateValues" dxfId="263" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I141">
+    <cfRule type="duplicateValues" dxfId="262" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123">
+    <cfRule type="duplicateValues" dxfId="261" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130">
+    <cfRule type="duplicateValues" dxfId="260" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128">
+    <cfRule type="duplicateValues" dxfId="259" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135">
+    <cfRule type="duplicateValues" dxfId="258" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I125">
+    <cfRule type="duplicateValues" dxfId="257" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I126">
+    <cfRule type="duplicateValues" dxfId="256" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I122">
+    <cfRule type="duplicateValues" dxfId="255" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I136">
+    <cfRule type="duplicateValues" dxfId="254" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138">
+    <cfRule type="duplicateValues" dxfId="253" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I134">
+    <cfRule type="duplicateValues" dxfId="252" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127">
+    <cfRule type="duplicateValues" dxfId="251" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133">
+    <cfRule type="duplicateValues" dxfId="250" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I124">
+    <cfRule type="duplicateValues" dxfId="249" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I155">
+    <cfRule type="duplicateValues" dxfId="248" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I143">
+    <cfRule type="duplicateValues" dxfId="247" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I144">
+    <cfRule type="duplicateValues" dxfId="246" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I157:J157">
+    <cfRule type="duplicateValues" dxfId="245" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I150">
+    <cfRule type="duplicateValues" dxfId="244" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I153">
+    <cfRule type="duplicateValues" dxfId="243" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146">
+    <cfRule type="duplicateValues" dxfId="242" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I161">
+    <cfRule type="duplicateValues" dxfId="241" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I148">
+    <cfRule type="duplicateValues" dxfId="240" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
+    <cfRule type="duplicateValues" dxfId="239" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I158">
+    <cfRule type="duplicateValues" dxfId="238" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145">
+    <cfRule type="duplicateValues" dxfId="237" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I156">
+    <cfRule type="duplicateValues" dxfId="236" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I147">
+    <cfRule type="duplicateValues" dxfId="235" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I160">
+    <cfRule type="duplicateValues" dxfId="234" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I154">
+    <cfRule type="duplicateValues" dxfId="233" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I142">
+    <cfRule type="duplicateValues" dxfId="232" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I159">
+    <cfRule type="duplicateValues" dxfId="231" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I151:I152">
+    <cfRule type="duplicateValues" dxfId="230" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
